--- a/src/main/resources/165-mall4cloud/mall4cloud-search_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-search_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="386">
   <si>
     <t>类名</t>
   </si>
@@ -187,7 +187,7 @@
     <t>java.util.List</t>
   </si>
   <si>
-    <t>insertCategoryName(com.mall4j.cloud.api.product.bo.EsProductBO)</t>
+    <t>insertCategoryName(com.mall4j.cloud.api.product.bo.EsProductBO,com.mall4j.cloud.search.bo.CategoryBO)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.search.listener.ShopDetailCanalListener</t>
@@ -211,7 +211,7 @@
     <t>cn.throwx.canal.gule.support.processor.ExceptionHandler</t>
   </si>
   <si>
-    <t>lambda$exceptionHandler$0(cn.throwx.canal.gule.model.CanalBinLogEvent)</t>
+    <t>lambda$exceptionHandler$0(cn.throwx.canal.gule.model.CanalBinLogEvent,java.lang.Throwable)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.search.listener.SpuCanalListener</t>
@@ -265,7 +265,7 @@
     <t>cn.throwx.canal.gule.support.parser.ParseResultInterceptorManager</t>
   </si>
   <si>
-    <t>lambda$afterSingletonsInstantiated$0(cn.throwx.canal.gule.support.parser.ParseResultInterceptorManager)</t>
+    <t>lambda$afterSingletonsInstantiated$0(cn.throwx.canal.gule.support.parser.ParseResultInterceptorManager,java.lang.String,cn.throwx.canal.gule.support.parser.BaseParseResultInterceptor)</t>
   </si>
   <si>
     <t>modelTableMetadataManager(cn.throwx.canal.gule.support.parser.converter.CanalFieldConverterFactory)</t>
@@ -274,7 +274,7 @@
     <t>cn.throwx.canal.gule.support.parser.ModelTableMetadataManager</t>
   </si>
   <si>
-    <t>lambda$afterSingletonsInstantiated$1(cn.throwx.canal.gule.support.parser.CanalBinLogEventParser)</t>
+    <t>lambda$afterSingletonsInstantiated$1(cn.throwx.canal.gule.support.parser.CanalBinLogEventParser,cn.throwx.canal.gule.support.parser.ModelTableMetadataManager,cn.throwx.canal.gule.support.processor.CanalBinlogEventProcessorFactory,cn.throwx.canal.gule.support.parser.ParseResultInterceptorManager,java.lang.String,cn.throwx.canal.gule.support.processor.BaseCanalBinlogEventProcessor)</t>
   </si>
   <si>
     <t>canalFieldConverterFactory()</t>
@@ -295,7 +295,7 @@
     <t>com.mall4j.cloud.search.canal.Mall4cloudCanalGlue</t>
   </si>
   <si>
-    <t>lambda$process$0(cn.throwx.canal.gule.model.CanalBinLogEvent)</t>
+    <t>lambda$process$0(cn.throwx.canal.gule.model.CanalBinLogEvent,cn.throwx.canal.gule.support.processor.BaseCanalBinlogEventProcessor)</t>
   </si>
   <si>
     <t>process(java.lang.String)</t>
@@ -313,7 +313,7 @@
     <t>of()</t>
   </si>
   <si>
-    <t>register(cn.throwx.canal.gule.model.ModelTable)</t>
+    <t>register(cn.throwx.canal.gule.model.ModelTable,cn.throwx.canal.gule.support.processor.BaseCanalBinlogEventProcessor)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.search.canal.Mall4cloudCanalBinLogEventParser</t>
@@ -322,7 +322,7 @@
     <t>lambda$parse$0(java.util.List)</t>
   </si>
   <si>
-    <t>parse(cn.throwx.canal.gule.model.CanalBinLogEvent)</t>
+    <t>parse(cn.throwx.canal.gule.model.CanalBinLogEvent,java.lang.Class,cn.throwx.canal.gule.support.parser.BasePrimaryKeyTupleFunction,cn.throwx.canal.gule.support.parser.BaseCommonEntryFunction)</t>
   </si>
   <si>
     <t>lambda$parse$1()</t>
@@ -343,10 +343,10 @@
     <t>loadSpuStatus(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
   </si>
   <si>
-    <t>sort(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>pageSearchResult(com.mall4j.cloud.api.dto.EsPageDTO)</t>
+    <t>sort(com.mall4j.cloud.api.dto.ProductSearchDTO,org.elasticsearch.search.builder.SearchSourceBuilder,org.elasticsearch.index.query.BoolQueryBuilder)</t>
+  </si>
+  <si>
+    <t>pageSearchResult(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO,java.lang.Boolean)</t>
   </si>
   <si>
     <t>org.elasticsearch.action.search.SearchResponse</t>
@@ -355,16 +355,16 @@
     <t>handleAggregationsLang(java.lang.String,java.lang.String,java.lang.String)</t>
   </si>
   <si>
-    <t>categoryFilterQuery(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>adminPage(com.mall4j.cloud.api.dto.EsPageDTO)</t>
+    <t>categoryFilterQuery(com.mall4j.cloud.api.dto.ProductSearchDTO,org.elasticsearch.index.query.BoolQueryBuilder)</t>
+  </si>
+  <si>
+    <t>adminPage(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.api.vo.EsPageVO</t>
   </si>
   <si>
-    <t>loadAggregationsData(com.mall4j.cloud.api.vo.search.ProductSearchVO)</t>
+    <t>loadAggregationsData(com.mall4j.cloud.api.vo.search.ProductSearchVO,org.elasticsearch.search.aggregations.Aggregations)</t>
   </si>
   <si>
     <t>buildSpuAdminList(org.elasticsearch.action.search.SearchResponse)</t>
@@ -373,7 +373,7 @@
     <t>loadSpuListByAggregations(org.elasticsearch.action.search.SearchResponse)</t>
   </si>
   <si>
-    <t>page(com.mall4j.cloud.api.dto.EsPageDTO)</t>
+    <t>page(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
   </si>
   <si>
     <t>list(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
@@ -382,13 +382,13 @@
     <t>getProductSearchVOList(org.elasticsearch.action.search.SearchResponse)</t>
   </si>
   <si>
-    <t>getValuesByBucket(org.elasticsearch.search.aggregations.bucket.terms.Terms$Bucket)</t>
-  </si>
-  <si>
-    <t>filterQueryIfNecessary(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>buildSearchPage(com.mall4j.cloud.api.dto.EsPageDTO)</t>
+    <t>getValuesByBucket(org.elasticsearch.search.aggregations.bucket.terms.Terms$Bucket,java.lang.String)</t>
+  </si>
+  <si>
+    <t>filterQueryIfNecessary(com.mall4j.cloud.api.dto.ProductSearchDTO,org.elasticsearch.index.query.BoolQueryBuilder)</t>
+  </si>
+  <si>
+    <t>buildSearchPage(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.vo.EsPageVO,org.elasticsearch.action.search.SearchResponse)</t>
   </si>
   <si>
     <t>getSpuListByResponse(org.elasticsearch.search.SearchHit[])</t>
@@ -397,34 +397,37 @@
     <t>limitSizeListByShopIds(java.util.List,java.lang.Integer)</t>
   </si>
   <si>
-    <t>buildSearchResult(com.mall4j.cloud.api.dto.EsPageDTO)</t>
-  </si>
-  <si>
-    <t>simplePage(com.mall4j.cloud.api.dto.EsPageDTO)</t>
-  </si>
-  <si>
-    <t>keywordSearch(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>buildSearchRequest(com.mall4j.cloud.api.dto.EsPageDTO)</t>
+    <t>buildSearchResult(com.mall4j.cloud.api.dto.EsPageDTO,org.elasticsearch.action.search.SearchResponse)</t>
+  </si>
+  <si>
+    <t>simplePage(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
+  </si>
+  <si>
+    <t>keywordSearch(com.mall4j.cloud.api.dto.ProductSearchDTO,org.elasticsearch.index.query.BoolQueryBuilder)</t>
+  </si>
+  <si>
+    <t>buildSearchRequest(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO,java.lang.Boolean)</t>
   </si>
   <si>
     <t>org.elasticsearch.action.search.SearchRequest</t>
   </si>
   <si>
-    <t>agg(com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
+    <t>agg(com.mall4j.cloud.api.dto.ProductSearchDTO,org.elasticsearch.search.builder.SearchSourceBuilder,java.lang.Boolean)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.search.manager.ProductUpdateManager</t>
   </si>
   <si>
-    <t>esUpdateSpuBySpuIds(com.mall4j.cloud.api.product.bo.EsProductBO)</t>
+    <t>esUpdateSpuBySpuIds(java.util.List,com.mall4j.cloud.api.product.bo.EsProductBO)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.search.manager.OrderSearchManager</t>
   </si>
   <si>
-    <t>sort(org.elasticsearch.search.builder.SearchSourceBuilder)</t>
+    <t>buildSearchRequest(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.common.dto.OrderSearchDTO)</t>
+  </si>
+  <si>
+    <t>sort(org.elasticsearch.search.builder.SearchSourceBuilder,org.elasticsearch.index.query.BoolQueryBuilder)</t>
   </si>
   <si>
     <t>getOrderListByResponse(org.elasticsearch.search.SearchHit[])</t>
@@ -433,10 +436,13 @@
     <t>getEsOrderBOList(org.elasticsearch.action.search.SearchResponse)</t>
   </si>
   <si>
-    <t>keywordSearch(com.mall4j.cloud.common.dto.OrderSearchDTO)</t>
-  </si>
-  <si>
-    <t>filterQueryIfNecessary(com.mall4j.cloud.common.dto.OrderSearchDTO)</t>
+    <t>keywordSearch(com.mall4j.cloud.common.dto.OrderSearchDTO,org.elasticsearch.index.query.BoolQueryBuilder)</t>
+  </si>
+  <si>
+    <t>pageSearchResult(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.common.dto.OrderSearchDTO)</t>
+  </si>
+  <si>
+    <t>filterQueryIfNecessary(com.mall4j.cloud.common.dto.OrderSearchDTO,org.elasticsearch.index.query.BoolQueryBuilder)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.search.constant.DataType</t>
@@ -1147,46 +1153,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>esUpdateSpuBySpuIds(java.util.List,com.mall4j.cloud.api.product.bo.EsProductBO)</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>insertCategoryName(com.mall4j.cloud.api.product.bo.EsProductBO,com.mall4j.cloud.search.bo.CategoryBO)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>pageSearchResult(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO,java.lang.Boolean)</t>
-  </si>
-  <si>
-    <t>buildSearchRequest(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO,java.lang.Boolean)</t>
-  </si>
-  <si>
-    <t>adminPage(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>page(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>filterQueryIfNecessary(org.elasticsearch.index.query.BoolQueryBuilder)</t>
-  </si>
-  <si>
-    <t>buildSearchResult(org.elasticsearch.action.search.SearchResponse)</t>
-  </si>
-  <si>
-    <t>simplePage(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.api.dto.ProductSearchDTO)</t>
-  </si>
-  <si>
-    <t>buildSearchRequest(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.common.dto.OrderSearchDTO)</t>
-  </si>
-  <si>
-    <t>pageSearchResult(com.mall4j.cloud.api.dto.EsPageDTO,com.mall4j.cloud.common.dto.OrderSearchDTO)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -4242,7 +4215,7 @@
         <v>133</v>
       </c>
       <c r="B214" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C214" t="s">
         <v>53</v>
@@ -4270,7 +4243,7 @@
         <v>133</v>
       </c>
       <c r="B216" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C216" t="s">
         <v>53</v>
@@ -4354,7 +4327,7 @@
         <v>133</v>
       </c>
       <c r="B222" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C222" t="s">
         <v>53</v>
@@ -4382,7 +4355,7 @@
         <v>133</v>
       </c>
       <c r="B224" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C224" t="s">
         <v>53</v>
@@ -4396,7 +4369,7 @@
         <v>133</v>
       </c>
       <c r="B225" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C225" t="s">
         <v>53</v>
@@ -4424,7 +4397,7 @@
         <v>133</v>
       </c>
       <c r="B227" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -4438,7 +4411,7 @@
         <v>133</v>
       </c>
       <c r="B228" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C228" t="s">
         <v>53</v>
@@ -4477,7 +4450,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4491,21 +4464,21 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B232" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
@@ -4519,7 +4492,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B234" t="s">
         <v>28</v>
@@ -4533,7 +4506,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B235" t="s">
         <v>32</v>
@@ -4547,7 +4520,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B236" t="s">
         <v>34</v>
@@ -4561,7 +4534,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
@@ -4575,7 +4548,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B238" t="s">
         <v>35</v>
@@ -4589,10 +4562,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B239" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -4603,38 +4576,38 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B240" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B241" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B242" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -4645,10 +4618,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B243" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -4659,7 +4632,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B244" t="s">
         <v>39</v>
@@ -4673,10 +4646,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B245" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -4687,7 +4660,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B246" t="s">
         <v>42</v>
@@ -4701,10 +4674,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B247" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
@@ -4715,7 +4688,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B248" t="s">
         <v>26</v>
@@ -4729,7 +4702,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B249" t="s">
         <v>45</v>
@@ -4743,10 +4716,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B250" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -4757,7 +4730,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -4771,21 +4744,21 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B252" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B253" t="s">
         <v>8</v>
@@ -4799,7 +4772,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B254" t="s">
         <v>28</v>
@@ -4813,7 +4786,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B255" t="s">
         <v>32</v>
@@ -4827,7 +4800,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B256" t="s">
         <v>34</v>
@@ -4841,7 +4814,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B257" t="s">
         <v>16</v>
@@ -4855,7 +4828,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B258" t="s">
         <v>35</v>
@@ -4869,10 +4842,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B259" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -4883,38 +4856,38 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B260" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B261" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B262" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -4925,10 +4898,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B263" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
@@ -4939,7 +4912,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B264" t="s">
         <v>39</v>
@@ -4953,10 +4926,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B265" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -4967,7 +4940,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B266" t="s">
         <v>42</v>
@@ -4981,10 +4954,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
+        <v>153</v>
+      </c>
+      <c r="B267" t="s">
         <v>151</v>
-      </c>
-      <c r="B267" t="s">
-        <v>149</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -4995,7 +4968,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B268" t="s">
         <v>26</v>
@@ -5009,7 +4982,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B269" t="s">
         <v>45</v>
@@ -5023,10 +4996,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B270" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -5037,7 +5010,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -5051,7 +5024,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
@@ -5065,7 +5038,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B273" t="s">
         <v>39</v>
@@ -5079,7 +5052,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B274" t="s">
         <v>28</v>
@@ -5093,7 +5066,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B275" t="s">
         <v>42</v>
@@ -5107,7 +5080,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B276" t="s">
         <v>26</v>
@@ -5121,7 +5094,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B277" t="s">
         <v>32</v>
@@ -5135,7 +5108,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B278" t="s">
         <v>45</v>
@@ -5149,7 +5122,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B279" t="s">
         <v>34</v>
@@ -5163,7 +5136,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
@@ -5177,7 +5150,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B281" t="s">
         <v>35</v>
@@ -5191,7 +5164,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -5205,21 +5178,21 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B283" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
@@ -5233,7 +5206,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B285" t="s">
         <v>28</v>
@@ -5247,7 +5220,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B286" t="s">
         <v>32</v>
@@ -5261,7 +5234,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B287" t="s">
         <v>34</v>
@@ -5275,7 +5248,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B288" t="s">
         <v>16</v>
@@ -5289,7 +5262,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B289" t="s">
         <v>35</v>
@@ -5303,10 +5276,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B290" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -5317,38 +5290,38 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B291" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B292" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B293" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
@@ -5359,10 +5332,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B294" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -5373,7 +5346,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B295" t="s">
         <v>39</v>
@@ -5387,10 +5360,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B296" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -5401,7 +5374,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B297" t="s">
         <v>42</v>
@@ -5415,10 +5388,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B298" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -5429,7 +5402,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B299" t="s">
         <v>26</v>
@@ -5443,7 +5416,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B300" t="s">
         <v>45</v>
@@ -5457,10 +5430,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B301" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -5471,7 +5444,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -5485,21 +5458,21 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B303" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B304" t="s">
         <v>8</v>
@@ -5513,10 +5486,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B305" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C305" t="s">
         <v>6</v>
@@ -5527,7 +5500,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B306" t="s">
         <v>28</v>
@@ -5541,7 +5514,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B307" t="s">
         <v>32</v>
@@ -5555,7 +5528,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B308" t="s">
         <v>34</v>
@@ -5569,7 +5542,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B309" t="s">
         <v>16</v>
@@ -5583,7 +5556,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B310" t="s">
         <v>35</v>
@@ -5597,10 +5570,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B311" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -5611,10 +5584,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B312" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -5625,38 +5598,38 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B313" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
       </c>
       <c r="D313" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B314" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
       </c>
       <c r="D314" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B315" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -5667,10 +5640,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B316" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -5681,7 +5654,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B317" t="s">
         <v>39</v>
@@ -5695,10 +5668,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B318" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -5709,10 +5682,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B319" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -5723,10 +5696,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B320" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -5737,7 +5710,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B321" t="s">
         <v>42</v>
@@ -5751,10 +5724,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B322" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
@@ -5765,7 +5738,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B323" t="s">
         <v>26</v>
@@ -5779,7 +5752,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B324" t="s">
         <v>45</v>
@@ -5793,10 +5766,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B325" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C325" t="s">
         <v>6</v>
@@ -5807,7 +5780,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -5821,10 +5794,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B327" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C327" t="s">
         <v>6</v>
@@ -5835,10 +5808,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B328" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -5849,7 +5822,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B329" t="s">
         <v>8</v>
@@ -5863,10 +5836,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B330" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C330" t="s">
         <v>6</v>
@@ -5877,10 +5850,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B331" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C331" t="s">
         <v>6</v>
@@ -5891,10 +5864,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B332" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C332" t="s">
         <v>6</v>
@@ -5905,10 +5878,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B333" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -5919,7 +5892,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B334" t="s">
         <v>13</v>
@@ -5933,7 +5906,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B335" t="s">
         <v>16</v>
@@ -5947,10 +5920,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B336" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -5961,10 +5934,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B337" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C337" t="s">
         <v>6</v>
@@ -5975,10 +5948,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B338" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
@@ -5989,10 +5962,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B339" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C339" t="s">
         <v>6</v>
@@ -6003,7 +5976,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B340" t="s">
         <v>26</v>
@@ -6017,10 +5990,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B341" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
@@ -6031,10 +6004,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B342" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C342" t="s">
         <v>6</v>
@@ -6045,10 +6018,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B343" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
@@ -6059,7 +6032,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B344" t="s">
         <v>28</v>
@@ -6073,10 +6046,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B345" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -6087,7 +6060,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B346" t="s">
         <v>29</v>
@@ -6101,10 +6074,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B347" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -6115,7 +6088,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B348" t="s">
         <v>31</v>
@@ -6129,7 +6102,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B349" t="s">
         <v>32</v>
@@ -6143,7 +6116,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B350" t="s">
         <v>34</v>
@@ -6157,7 +6130,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B351" t="s">
         <v>35</v>
@@ -6171,7 +6144,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B352" t="s">
         <v>39</v>
@@ -6185,7 +6158,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B353" t="s">
         <v>40</v>
@@ -6199,10 +6172,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B354" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -6213,7 +6186,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B355" t="s">
         <v>42</v>
@@ -6227,10 +6200,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B356" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -6241,7 +6214,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B357" t="s">
         <v>45</v>
@@ -6255,10 +6228,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B358" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -6269,7 +6242,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -6283,7 +6256,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B360" t="s">
         <v>8</v>
@@ -6297,7 +6270,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B361" t="s">
         <v>11</v>
@@ -6311,10 +6284,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B362" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
@@ -6325,10 +6298,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B363" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C363" t="s">
         <v>6</v>
@@ -6339,7 +6312,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B364" t="s">
         <v>16</v>
@@ -6353,7 +6326,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B365" t="s">
         <v>17</v>
@@ -6367,24 +6340,24 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B366" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
       </c>
       <c r="D366" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B367" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -6395,7 +6368,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B368" t="s">
         <v>24</v>
@@ -6409,10 +6382,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B369" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -6423,7 +6396,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B370" t="s">
         <v>26</v>
@@ -6437,7 +6410,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B371" t="s">
         <v>28</v>
@@ -6451,10 +6424,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B372" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
@@ -6465,10 +6438,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B373" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
@@ -6479,7 +6452,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B374" t="s">
         <v>32</v>
@@ -6493,7 +6466,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B375" t="s">
         <v>34</v>
@@ -6507,7 +6480,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B376" t="s">
         <v>35</v>
@@ -6521,10 +6494,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B377" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -6535,7 +6508,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B378" t="s">
         <v>38</v>
@@ -6549,7 +6522,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B379" t="s">
         <v>39</v>
@@ -6563,24 +6536,24 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B380" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
       </c>
       <c r="D380" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B381" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
@@ -6591,7 +6564,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B382" t="s">
         <v>41</v>
@@ -6605,7 +6578,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B383" t="s">
         <v>42</v>
@@ -6619,7 +6592,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B384" t="s">
         <v>44</v>
@@ -6633,7 +6606,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B385" t="s">
         <v>45</v>
@@ -6647,7 +6620,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -6661,10 +6634,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B387" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C387" t="s">
         <v>6</v>
@@ -6675,10 +6648,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B388" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
@@ -6689,7 +6662,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B389" t="s">
         <v>8</v>
@@ -6703,10 +6676,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B390" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
@@ -6717,10 +6690,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B391" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C391" t="s">
         <v>6</v>
@@ -6731,10 +6704,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B392" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C392" t="s">
         <v>6</v>
@@ -6745,10 +6718,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B393" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -6759,7 +6732,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B394" t="s">
         <v>12</v>
@@ -6773,7 +6746,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B395" t="s">
         <v>13</v>
@@ -6787,10 +6760,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B396" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C396" t="s">
         <v>6</v>
@@ -6801,7 +6774,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B397" t="s">
         <v>16</v>
@@ -6815,7 +6788,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B398" t="s">
         <v>17</v>
@@ -6829,10 +6802,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B399" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
@@ -6843,10 +6816,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B400" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C400" t="s">
         <v>6</v>
@@ -6857,7 +6830,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B401" t="s">
         <v>21</v>
@@ -6871,10 +6844,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B402" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -6885,7 +6858,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B403" t="s">
         <v>23</v>
@@ -6899,7 +6872,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B404" t="s">
         <v>25</v>
@@ -6913,10 +6886,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B405" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C405" t="s">
         <v>6</v>
@@ -6927,7 +6900,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B406" t="s">
         <v>26</v>
@@ -6941,10 +6914,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B407" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C407" t="s">
         <v>6</v>
@@ -6955,10 +6928,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B408" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C408" t="s">
         <v>6</v>
@@ -6969,7 +6942,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B409" t="s">
         <v>28</v>
@@ -6983,7 +6956,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B410" t="s">
         <v>29</v>
@@ -6997,10 +6970,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B411" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C411" t="s">
         <v>6</v>
@@ -7011,7 +6984,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B412" t="s">
         <v>30</v>
@@ -7025,7 +6998,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B413" t="s">
         <v>31</v>
@@ -7039,7 +7012,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B414" t="s">
         <v>32</v>
@@ -7053,7 +7026,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B415" t="s">
         <v>34</v>
@@ -7067,7 +7040,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B416" t="s">
         <v>35</v>
@@ -7081,7 +7054,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B417" t="s">
         <v>37</v>
@@ -7095,7 +7068,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B418" t="s">
         <v>39</v>
@@ -7109,10 +7082,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B419" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C419" t="s">
         <v>6</v>
@@ -7123,7 +7096,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B420" t="s">
         <v>40</v>
@@ -7137,7 +7110,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B421" t="s">
         <v>41</v>
@@ -7151,10 +7124,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B422" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C422" t="s">
         <v>6</v>
@@ -7165,7 +7138,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B423" t="s">
         <v>42</v>
@@ -7179,7 +7152,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B424" t="s">
         <v>45</v>
@@ -7193,7 +7166,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -7207,7 +7180,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B426" t="s">
         <v>8</v>
@@ -7221,24 +7194,24 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B427" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C427" t="s">
         <v>6</v>
       </c>
       <c r="D427" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B428" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -7249,10 +7222,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B429" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C429" t="s">
         <v>6</v>
@@ -7263,10 +7236,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B430" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C430" t="s">
         <v>6</v>
@@ -7277,10 +7250,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B431" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C431" t="s">
         <v>6</v>
@@ -7291,7 +7264,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B432" t="s">
         <v>16</v>
@@ -7305,10 +7278,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B433" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
@@ -7319,10 +7292,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B434" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C434" t="s">
         <v>6</v>
@@ -7333,7 +7306,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B435" t="s">
         <v>19</v>
@@ -7347,10 +7320,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B436" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C436" t="s">
         <v>6</v>
@@ -7361,7 +7334,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B437" t="s">
         <v>22</v>
@@ -7375,10 +7348,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B438" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C438" t="s">
         <v>6</v>
@@ -7389,10 +7362,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B439" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -7403,10 +7376,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B440" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C440" t="s">
         <v>6</v>
@@ -7417,10 +7390,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B441" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C441" t="s">
         <v>6</v>
@@ -7431,10 +7404,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B442" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
@@ -7445,7 +7418,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B443" t="s">
         <v>26</v>
@@ -7459,7 +7432,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B444" t="s">
         <v>28</v>
@@ -7473,10 +7446,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B445" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C445" t="s">
         <v>6</v>
@@ -7487,10 +7460,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B446" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C446" t="s">
         <v>6</v>
@@ -7501,10 +7474,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B447" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C447" t="s">
         <v>6</v>
@@ -7515,7 +7488,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B448" t="s">
         <v>29</v>
@@ -7529,10 +7502,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B449" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C449" t="s">
         <v>6</v>
@@ -7543,7 +7516,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B450" t="s">
         <v>32</v>
@@ -7557,7 +7530,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B451" t="s">
         <v>34</v>
@@ -7571,7 +7544,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B452" t="s">
         <v>35</v>
@@ -7585,10 +7558,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B453" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C453" t="s">
         <v>6</v>
@@ -7599,35 +7572,35 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B454" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C454" t="s">
         <v>6</v>
       </c>
       <c r="D454" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B455" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C455" t="s">
         <v>6</v>
       </c>
       <c r="D455" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B456" t="s">
         <v>39</v>
@@ -7641,7 +7614,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B457" t="s">
         <v>40</v>
@@ -7655,24 +7628,24 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B458" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
       </c>
       <c r="D458" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B459" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
@@ -7683,7 +7656,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B460" t="s">
         <v>42</v>
@@ -7697,10 +7670,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B461" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C461" t="s">
         <v>6</v>
@@ -7711,10 +7684,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B462" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C462" t="s">
         <v>6</v>
@@ -7725,7 +7698,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B463" t="s">
         <v>45</v>
@@ -7739,10 +7712,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B464" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C464" t="s">
         <v>6</v>
@@ -7753,10 +7726,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B465" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C465" t="s">
         <v>6</v>
@@ -7767,7 +7740,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -7781,7 +7754,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B467" t="s">
         <v>8</v>
@@ -7795,10 +7768,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B468" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C468" t="s">
         <v>6</v>
@@ -7809,10 +7782,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B469" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C469" t="s">
         <v>6</v>
@@ -7823,7 +7796,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B470" t="s">
         <v>28</v>
@@ -7837,10 +7810,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B471" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C471" t="s">
         <v>6</v>
@@ -7851,7 +7824,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B472" t="s">
         <v>29</v>
@@ -7865,7 +7838,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B473" t="s">
         <v>32</v>
@@ -7879,7 +7852,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B474" t="s">
         <v>34</v>
@@ -7893,7 +7866,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B475" t="s">
         <v>16</v>
@@ -7907,7 +7880,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B476" t="s">
         <v>35</v>
@@ -7921,7 +7894,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B477" t="s">
         <v>19</v>
@@ -7935,7 +7908,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B478" t="s">
         <v>39</v>
@@ -7949,7 +7922,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B479" t="s">
         <v>22</v>
@@ -7963,7 +7936,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B480" t="s">
         <v>40</v>
@@ -7977,10 +7950,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B481" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C481" t="s">
         <v>6</v>
@@ -7991,7 +7964,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B482" t="s">
         <v>42</v>
@@ -8005,10 +7978,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B483" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C483" t="s">
         <v>6</v>
@@ -8019,7 +7992,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B484" t="s">
         <v>26</v>
@@ -8033,10 +8006,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B485" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -8047,7 +8020,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B486" t="s">
         <v>45</v>
@@ -8061,7 +8034,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B487" t="s">
         <v>5</v>
@@ -8075,10 +8048,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B488" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C488" t="s">
         <v>6</v>
@@ -8089,10 +8062,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B489" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C489" t="s">
         <v>6</v>
@@ -8103,7 +8076,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B490" t="s">
         <v>8</v>
@@ -8117,10 +8090,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B491" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C491" t="s">
         <v>6</v>
@@ -8131,7 +8104,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B492" t="s">
         <v>28</v>
@@ -8145,10 +8118,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B493" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C493" t="s">
         <v>6</v>
@@ -8159,10 +8132,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B494" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C494" t="s">
         <v>6</v>
@@ -8173,7 +8146,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B495" t="s">
         <v>32</v>
@@ -8187,7 +8160,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B496" t="s">
         <v>34</v>
@@ -8201,7 +8174,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B497" t="s">
         <v>16</v>
@@ -8215,7 +8188,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B498" t="s">
         <v>35</v>
@@ -8229,7 +8202,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B499" t="s">
         <v>39</v>
@@ -8243,10 +8216,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B500" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C500" t="s">
         <v>6</v>
@@ -8257,10 +8230,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B501" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C501" t="s">
         <v>6</v>
@@ -8271,7 +8244,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B502" t="s">
         <v>42</v>
@@ -8285,7 +8258,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B503" t="s">
         <v>26</v>
@@ -8299,7 +8272,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B504" t="s">
         <v>45</v>
@@ -8313,10 +8286,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B505" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C505" t="s">
         <v>6</v>
@@ -8343,13 +8316,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
@@ -8357,7 +8330,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -8371,7 +8344,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -8385,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -8399,7 +8372,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -8413,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -8427,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -8441,7 +8414,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -8455,7 +8428,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
@@ -8469,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
@@ -8483,7 +8456,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -8497,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -8511,13 +8484,13 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
@@ -8525,7 +8498,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -8539,13 +8512,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
@@ -8553,13 +8526,13 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17">
@@ -8567,13 +8540,13 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
@@ -8581,7 +8554,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -8595,13 +8568,13 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
@@ -8609,13 +8582,13 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21">
@@ -8623,7 +8596,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -8637,13 +8610,13 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -8651,13 +8624,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -8665,7 +8638,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
         <v>53</v>
@@ -8679,13 +8652,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -8693,7 +8666,7 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
         <v>53</v>
@@ -8707,13 +8680,13 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -8721,13 +8694,13 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
@@ -8735,7 +8708,7 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -8749,13 +8722,13 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
@@ -8763,13 +8736,13 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
@@ -8777,7 +8750,7 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
@@ -8791,13 +8764,13 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
@@ -8805,7 +8778,7 @@
         <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
         <v>53</v>
@@ -8819,13 +8792,13 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -8833,13 +8806,13 @@
         <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
@@ -8847,13 +8820,13 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
         <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
@@ -8861,7 +8834,7 @@
         <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -8875,7 +8848,7 @@
         <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -8889,13 +8862,13 @@
         <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">
@@ -8903,7 +8876,7 @@
         <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
@@ -8914,66 +8887,66 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -8984,52 +8957,52 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -9040,24 +9013,24 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -9068,10 +9041,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -9082,10 +9055,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -9096,10 +9069,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -9110,10 +9083,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -9124,10 +9097,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -9138,10 +9111,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -9152,10 +9125,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -9166,10 +9139,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -9180,10 +9153,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -9194,10 +9167,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -9208,10 +9181,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -9222,10 +9195,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -9236,10 +9209,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -9250,10 +9223,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -9264,10 +9237,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -9278,10 +9251,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -9292,10 +9265,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -9306,10 +9279,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -9320,10 +9293,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -9334,10 +9307,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -9348,10 +9321,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -9362,10 +9335,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -9376,10 +9349,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -9390,10 +9363,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -9404,10 +9377,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -9418,10 +9391,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -9432,10 +9405,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -9446,10 +9419,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -9460,10 +9433,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -9474,10 +9447,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -9488,10 +9461,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -9502,10 +9475,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -9516,10 +9489,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -9530,10 +9503,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -9544,10 +9517,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -9558,10 +9531,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -9572,66 +9545,66 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
         <v>53</v>
@@ -9642,108 +9615,108 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
         <v>53</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C101" t="s">
         <v>53</v>
@@ -9754,10 +9727,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C102" t="s">
         <v>53</v>
@@ -9768,10 +9741,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C103" t="s">
         <v>53</v>
@@ -9782,24 +9755,24 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s">
         <v>53</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
         <v>53</v>
@@ -9810,10 +9783,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
         <v>53</v>
@@ -9824,10 +9797,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s">
         <v>53</v>
@@ -9838,10 +9811,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
         <v>53</v>
@@ -9852,10 +9825,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C109" t="s">
         <v>53</v>
@@ -9866,10 +9839,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
         <v>53</v>
@@ -9880,10 +9853,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
         <v>53</v>
@@ -9894,10 +9867,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C112" t="s">
         <v>53</v>
@@ -9908,10 +9881,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
         <v>53</v>
@@ -9922,10 +9895,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
         <v>53</v>
@@ -9936,10 +9909,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
         <v>53</v>
@@ -9950,10 +9923,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C116" t="s">
         <v>53</v>
@@ -9964,38 +9937,38 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C117" t="s">
         <v>53</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
         <v>53</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C119" t="s">
         <v>53</v>
@@ -10006,10 +9979,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
         <v>53</v>
@@ -10020,10 +9993,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
         <v>53</v>
@@ -10034,10 +10007,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
         <v>53</v>
@@ -10048,10 +10021,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
@@ -10062,10 +10035,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
         <v>53</v>
@@ -10076,10 +10049,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C125" t="s">
         <v>53</v>
@@ -10090,10 +10063,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
         <v>53</v>
@@ -10104,10 +10077,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
         <v>53</v>
@@ -10118,10 +10091,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C128" t="s">
         <v>53</v>
@@ -10132,10 +10105,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C129" t="s">
         <v>53</v>
@@ -10146,10 +10119,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C130" t="s">
         <v>53</v>
@@ -10160,10 +10133,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C131" t="s">
         <v>53</v>
@@ -10174,10 +10147,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C132" t="s">
         <v>53</v>
@@ -10188,10 +10161,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C133" t="s">
         <v>53</v>
@@ -10202,10 +10175,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C134" t="s">
         <v>53</v>
@@ -10216,10 +10189,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C135" t="s">
         <v>53</v>
@@ -10230,10 +10203,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
         <v>53</v>
@@ -10244,10 +10217,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C137" t="s">
         <v>53</v>
@@ -10258,10 +10231,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s">
         <v>53</v>
@@ -10272,10 +10245,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C139" t="s">
         <v>53</v>
@@ -10286,10 +10259,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C140" t="s">
         <v>53</v>
@@ -10300,10 +10273,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C141" t="s">
         <v>53</v>
@@ -10314,10 +10287,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C142" t="s">
         <v>53</v>
@@ -10328,10 +10301,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C143" t="s">
         <v>53</v>
@@ -10342,10 +10315,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s">
         <v>53</v>
@@ -10356,10 +10329,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C145" t="s">
         <v>53</v>
@@ -10370,10 +10343,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C146" t="s">
         <v>53</v>
@@ -10384,66 +10357,66 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C147" t="s">
         <v>53</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C148" t="s">
         <v>53</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s">
         <v>53</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s">
         <v>53</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C151" t="s">
         <v>53</v>
@@ -10454,10 +10427,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C152" t="s">
         <v>53</v>
@@ -10468,10 +10441,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C153" t="s">
         <v>53</v>
@@ -10482,10 +10455,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C154" t="s">
         <v>53</v>
@@ -10496,10 +10469,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C155" t="s">
         <v>53</v>
@@ -10510,10 +10483,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C156" t="s">
         <v>53</v>
@@ -10524,10 +10497,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C157" t="s">
         <v>53</v>
@@ -10538,10 +10511,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C158" t="s">
         <v>53</v>
@@ -10552,10 +10525,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C159" t="s">
         <v>53</v>
@@ -10566,10 +10539,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C160" t="s">
         <v>53</v>
@@ -10580,10 +10553,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C161" t="s">
         <v>53</v>
@@ -10607,13 +10580,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -10621,7 +10594,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
         <v>126</v>
@@ -10630,12 +10603,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -10644,12 +10617,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
@@ -10658,12 +10631,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
@@ -10672,7 +10645,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -10682,7 +10655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10690,19 +10663,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
@@ -10713,13 +10686,13 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
@@ -10730,13 +10703,13 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
@@ -10747,13 +10720,13 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
@@ -10767,10 +10740,10 @@
         <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
@@ -10781,13 +10754,13 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
@@ -10798,13 +10771,13 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
@@ -10815,13 +10788,13 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9">
@@ -10832,13 +10805,13 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10">
@@ -10849,13 +10822,13 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11">
@@ -10866,13 +10839,13 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12">
@@ -10883,13 +10856,13 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13">
@@ -10900,13 +10873,13 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14">
@@ -10917,13 +10890,13 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15">
@@ -10937,10 +10910,10 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16">
@@ -10957,7 +10930,7 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
@@ -10971,10 +10944,10 @@
         <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18">
@@ -10982,16 +10955,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19">
@@ -10999,13 +10972,13 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
         <v>378</v>
@@ -11016,13 +10989,13 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
         <v>379</v>
@@ -11036,13 +11009,13 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22">
@@ -11053,13 +11026,13 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23">
@@ -11070,13 +11043,13 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24">
@@ -11087,13 +11060,13 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25">
@@ -11107,10 +11080,10 @@
         <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26">
@@ -11127,7 +11100,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27">
@@ -11138,13 +11111,13 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28">
@@ -11155,13 +11128,13 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29">
@@ -11172,13 +11145,13 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30">
@@ -11189,13 +11162,13 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31">
@@ -11212,7 +11185,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32">
@@ -11229,7 +11202,7 @@
         <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33">
@@ -11246,7 +11219,7 @@
         <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34">
@@ -11263,7 +11236,7 @@
         <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35">
@@ -11274,13 +11247,13 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36">
@@ -11288,16 +11261,16 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37">
@@ -11305,16 +11278,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38">
@@ -11322,16 +11295,16 @@
         <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39">
@@ -11339,16 +11312,16 @@
         <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40">
@@ -11356,16 +11329,16 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
@@ -11373,16 +11346,16 @@
         <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
         <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
@@ -11390,7 +11363,7 @@
         <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
         <v>105</v>
@@ -11399,7 +11372,7 @@
         <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
@@ -11407,16 +11380,16 @@
         <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
@@ -11424,7 +11397,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
         <v>105</v>
@@ -11433,7 +11406,7 @@
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
@@ -11441,16 +11414,16 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
@@ -11458,16 +11431,16 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>383</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
@@ -11475,16 +11448,16 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
         <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
@@ -11492,16 +11465,16 @@
         <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>381</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
@@ -11509,16 +11482,16 @@
         <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
@@ -11526,16 +11499,16 @@
         <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51">
@@ -11543,13 +11516,13 @@
         <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
         <v>376</v>
@@ -11560,16 +11533,16 @@
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53">
@@ -11577,16 +11550,16 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54">
@@ -11594,16 +11567,16 @@
         <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55">
@@ -11611,16 +11584,16 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56">
@@ -11628,16 +11601,16 @@
         <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
         <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57">
@@ -11645,135 +11618,373 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>381</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>375</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>387</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -11791,121 +12002,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -11923,19 +12134,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -11953,19 +12164,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -11983,19 +12194,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
@@ -12006,13 +12217,13 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
@@ -12023,13 +12234,13 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -12040,13 +12251,13 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
@@ -12057,13 +12268,13 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
@@ -12074,13 +12285,13 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7">
@@ -12091,13 +12302,13 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
@@ -12108,13 +12319,13 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9">
@@ -12122,16 +12333,16 @@
         <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10">
@@ -12139,16 +12350,16 @@
         <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11">
@@ -12156,16 +12367,16 @@
         <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12">
@@ -12176,13 +12387,13 @@
         <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13">
@@ -12190,16 +12401,16 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
@@ -12207,16 +12418,16 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15">
@@ -12224,16 +12435,16 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16">
@@ -12241,16 +12452,16 @@
         <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
@@ -12258,16 +12469,16 @@
         <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -12285,53 +12496,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
